--- a/Book3.xlsx
+++ b/Book3.xlsx
@@ -14,6 +14,14 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$J$21:$J$32</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$K$21:$K$32</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$J$21:$J$32</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$K$21:$K$32</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$2:$A$13</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$2:$B$13</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,20 +32,88 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Attemps</t>
   </si>
   <si>
     <t>Distance</t>
   </si>
+  <si>
+    <t>Bin</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>Sample Variance</t>
+  </si>
+  <si>
+    <t>Kurtosis</t>
+  </si>
+  <si>
+    <t>Skewness</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>descriptive statistics</t>
+  </si>
+  <si>
+    <t>Largest(1)</t>
+  </si>
+  <si>
+    <t>Smallest(1)</t>
+  </si>
+  <si>
+    <t>Confidence Level(95.0%)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -53,7 +129,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -61,12 +137,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,9 +569,323 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Histogram</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Frequency</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$J$21:$J$33</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>More</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$21:$K$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-50AA-4A0D-ABF1-BFE3AE26878C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:axId val="552196816"/>
+        <c:axId val="552196488"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="552196816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Bin</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="552196488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="552196488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="552196816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Histogram</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{A8EDED49-A89C-4D52-B1DC-68CE0A9D45B7}" formatIdx="0">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{A6C545F9-1220-4686-B036-CA2B6146249F}" formatIdx="1">
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+</cx:chartSpace>
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -509,6 +928,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1025,20 +1484,465 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>44825</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>62753</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>549088</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1055,6 +1959,104 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>11205</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>582705</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>11204</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28013</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>62752</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>364190</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>138952</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Chart 4"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1323,15 +2325,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1339,134 +2341,364 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>65.25</v>
       </c>
-      <c r="D2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>67.25</v>
       </c>
-      <c r="D3">
+      <c r="C3">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>66.5</v>
       </c>
-      <c r="D4">
+      <c r="C4">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>64.75</v>
       </c>
-      <c r="D5">
+      <c r="C5">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>62.5</v>
       </c>
-      <c r="D6">
+      <c r="C6">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>60</v>
       </c>
-      <c r="D7">
+      <c r="C7">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>69.25</v>
       </c>
-      <c r="D8">
+      <c r="C8">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>66.75</v>
       </c>
-      <c r="D9">
+      <c r="C9">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>64.25</v>
       </c>
-      <c r="D10">
+      <c r="C10">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>66</v>
       </c>
-      <c r="D11">
+      <c r="C11">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>16.5</v>
       </c>
-      <c r="D12">
+      <c r="C12">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13">
         <v>70</v>
       </c>
     </row>
+    <row r="19" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="J20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="J21" s="1">
+        <v>17</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J22" s="1">
+        <v>60</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="J23" s="1">
+        <v>61</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="J24" s="1">
+        <v>62</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="2">
+        <v>60.81818181818182</v>
+      </c>
+      <c r="J25" s="1">
+        <v>63</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1</v>
+      </c>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+    </row>
+    <row r="26" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="2">
+        <v>4.4936939286033839</v>
+      </c>
+      <c r="J26" s="1">
+        <v>64</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="2">
+        <v>65.25</v>
+      </c>
+      <c r="J27" s="1">
+        <v>65</v>
+      </c>
+      <c r="K27" s="2">
+        <v>2</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2">
+        <v>69.25</v>
+      </c>
+    </row>
+    <row r="28" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J28" s="1">
+        <v>66</v>
+      </c>
+      <c r="K28" s="2">
+        <v>2</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="29" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="2">
+        <v>14.90389668387553</v>
+      </c>
+      <c r="J29" s="1">
+        <v>67</v>
+      </c>
+      <c r="K29" s="2">
+        <v>2</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>10.012574031256035</v>
+      </c>
+    </row>
+    <row r="30" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="2">
+        <v>222.12613636363602</v>
+      </c>
+      <c r="J30" s="1">
+        <v>68</v>
+      </c>
+      <c r="K30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="2">
+        <v>10.206574416273504</v>
+      </c>
+      <c r="J31" s="1">
+        <v>69</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="2">
+        <v>-3.1549598897649571</v>
+      </c>
+      <c r="J32" s="1">
+        <v>70</v>
+      </c>
+      <c r="K32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="2">
+        <v>52.75</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="2">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="2">
+        <v>69.25</v>
+      </c>
+    </row>
+    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="2">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="37" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="3">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="J21:J32">
+    <sortCondition ref="J19"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Book3.xlsx
+++ b/Book3.xlsx
@@ -15,12 +15,20 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$J$21:$J$32</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$K$21:$K$32</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$J$21:$J$32</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$K$21:$K$32</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$2:$A$13</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$2:$B$13</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$M$8:$M$14</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$N$7</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$N$6</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$N$7:$N$13</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$O$6</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$O$7:$O$13</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$N$8:$N$14</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$O$7</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$O$8:$O$14</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$P$7</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$P$8:$P$14</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$L$7:$L$13</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$M$6</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$M$7:$M$13</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,15 +40,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Attemps</t>
   </si>
   <si>
     <t>Distance</t>
-  </si>
-  <si>
-    <t>Bin</t>
   </si>
   <si>
     <t>More</t>
@@ -98,6 +103,18 @@
   </si>
   <si>
     <t>Confidence Level(95.0%)</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Confidence Distance</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
   </si>
 </sst>
 </file>
@@ -161,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -172,6 +189,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -623,9 +641,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$J$21:$J$33</c:f>
+              <c:f>Sheet1!$M$8:$M$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>17</c:v>
                 </c:pt>
@@ -633,36 +651,15 @@
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>More</c:v>
                 </c:pt>
               </c:strCache>
@@ -670,10 +667,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$21:$K$33</c:f>
+              <c:f>Sheet1!$N$8:$N$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -681,44 +678,23 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-50AA-4A0D-ABF1-BFE3AE26878C}"/>
+              <c16:uniqueId val="{00000001-6D9E-4213-AC89-35E39DFEA3C1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -731,11 +707,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="552196816"/>
-        <c:axId val="552196488"/>
+        <c:axId val="515999816"/>
+        <c:axId val="516000144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="552196816"/>
+        <c:axId val="515999816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -750,10 +726,7 @@
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Bin</a:t>
-                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -764,7 +737,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="552196488"/>
+        <c:crossAx val="516000144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -772,7 +745,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="552196488"/>
+        <c:axId val="516000144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -801,7 +774,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="552196816"/>
+        <c:crossAx val="515999816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -827,13 +800,27 @@
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.7</cx:f>
+      </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.7</cx:f>
+      </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.7</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -844,30 +831,54 @@
           <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr rtl="0"/>
+            <a:pPr algn="ctr">
+              <a:defRPr/>
+            </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+              <a:rPr lang="en-US">
                 <a:effectLst/>
               </a:rPr>
               <a:t>Histogram</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US">
-              <a:effectLst/>
-            </a:endParaRPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </cx:rich>
       </cx:tx>
     </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
-        <cx:series layoutId="clusteredColumn" uniqueId="{A8EDED49-A89C-4D52-B1DC-68CE0A9D45B7}" formatIdx="0">
+        <cx:series layoutId="clusteredColumn" uniqueId="{8FEEED27-8F0C-4AF2-9E2B-3E0C25A6F313}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:v/>
+            </cx:txData>
+          </cx:tx>
           <cx:dataId val="0"/>
           <cx:layoutPr>
             <cx:binning intervalClosed="r"/>
           </cx:layoutPr>
         </cx:series>
-        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{A6C545F9-1220-4686-B036-CA2B6146249F}" formatIdx="1">
+        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{23A4419E-29E3-46C1-97D3-2B50398E0456}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:v/>
+            </cx:txData>
+          </cx:tx>
           <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{FBB68880-8623-4C87-9516-12841D5A4376}" formatIdx="2">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:v/>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
           <cx:layoutPr>
             <cx:binning intervalClosed="r"/>
           </cx:layoutPr>
@@ -884,7 +895,6 @@
       </cx:axis>
     </cx:plotArea>
   </cx:chart>
-  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
 </cx:chartSpace>
 </file>
 
@@ -1942,7 +1952,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>549088</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1963,20 +1973,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>11205</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>11205</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>582705</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>11204</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="9" name="Chart 8"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1994,21 +2004,21 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>28013</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>62752</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>364190</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>138952</xdr:rowOff>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="5" name="Chart 4"/>
+            <xdr:cNvPr id="11" name="Chart 10"/>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -2325,15 +2335,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2341,7 +2351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2352,7 +2362,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2363,7 +2373,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2374,7 +2384,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2384,8 +2394,9 @@
       <c r="C5">
         <v>62</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2395,8 +2406,9 @@
       <c r="C6">
         <v>63</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2406,8 +2418,15 @@
       <c r="C7">
         <v>64</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="L7" s="6"/>
+      <c r="M7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2417,8 +2436,15 @@
       <c r="C8">
         <v>65</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="L8" s="6"/>
+      <c r="M8" s="1">
+        <v>17</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2428,8 +2454,15 @@
       <c r="C9">
         <v>66</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="M9" s="1">
+        <v>60</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1</v>
+      </c>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2439,8 +2472,17 @@
       <c r="C10">
         <v>67</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="M10" s="1">
+        <v>63</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1</v>
+      </c>
+      <c r="T10" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2450,8 +2492,17 @@
       <c r="C11">
         <v>68</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="M11" s="1">
+        <v>66</v>
+      </c>
+      <c r="N11" s="2">
+        <v>3</v>
+      </c>
+      <c r="T11" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2461,241 +2512,209 @@
       <c r="C12">
         <v>69</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="M12" s="1">
+        <v>69</v>
+      </c>
+      <c r="N12" s="2">
+        <v>3</v>
+      </c>
+      <c r="T12" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>70</v>
       </c>
-    </row>
-    <row r="19" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="J20" s="4" t="s">
+      <c r="M13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="N13" s="3">
+        <v>1</v>
+      </c>
+      <c r="T13" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T14" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="1"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="2">
+        <v>70.209999999999994</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="J21" s="1">
-        <v>17</v>
-      </c>
-      <c r="K21" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J22" s="1">
-        <v>60</v>
-      </c>
-      <c r="K22" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D23" s="5" t="s">
+      <c r="C22" s="2">
+        <v>60.81818181818182</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="3">
+        <v>50.19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="2">
+        <v>4.4936939286033839</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="2">
+        <v>65.25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="2">
+        <v>14.90389668387553</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="2">
+        <v>222.12613636363602</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="2">
+        <v>10.206574416273504</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="2">
+        <v>-3.1549598897649571</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2">
+        <v>52.75</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="2">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="2">
+        <v>69.25</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="2">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="J23" s="1">
-        <v>61</v>
-      </c>
-      <c r="K23" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="J24" s="1">
-        <v>62</v>
-      </c>
-      <c r="K24" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="2">
-        <v>60.81818181818182</v>
-      </c>
-      <c r="J25" s="1">
-        <v>63</v>
-      </c>
-      <c r="K25" s="2">
-        <v>1</v>
-      </c>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-    </row>
-    <row r="26" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="2">
-        <v>4.4936939286033839</v>
-      </c>
-      <c r="J26" s="1">
-        <v>64</v>
-      </c>
-      <c r="K26" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="2">
-        <v>65.25</v>
-      </c>
-      <c r="J27" s="1">
-        <v>65</v>
-      </c>
-      <c r="K27" s="2">
-        <v>2</v>
-      </c>
-      <c r="N27" s="2" t="s">
+      <c r="E41" s="2">
+        <v>69.25</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2">
-        <v>69.25</v>
-      </c>
-    </row>
-    <row r="28" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J28" s="1">
-        <v>66</v>
-      </c>
-      <c r="K28" s="2">
-        <v>2</v>
-      </c>
-      <c r="N28" s="2" t="s">
+      <c r="E42" s="2">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q28" s="2">
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="29" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="2">
-        <v>14.90389668387553</v>
-      </c>
-      <c r="J29" s="1">
-        <v>67</v>
-      </c>
-      <c r="K29" s="2">
-        <v>2</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>10.012574031256035</v>
-      </c>
-    </row>
-    <row r="30" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="2">
-        <v>222.12613636363602</v>
-      </c>
-      <c r="J30" s="1">
-        <v>68</v>
-      </c>
-      <c r="K30" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="2">
-        <v>10.206574416273504</v>
-      </c>
-      <c r="J31" s="1">
-        <v>69</v>
-      </c>
-      <c r="K31" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="2">
-        <v>-3.1549598897649571</v>
-      </c>
-      <c r="J32" s="1">
-        <v>70</v>
-      </c>
-      <c r="K32" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="2">
-        <v>52.75</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="2">
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D35" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="2">
-        <v>69.25</v>
-      </c>
-    </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D36" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" s="2">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="37" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" s="3">
-        <v>11</v>
-      </c>
+      <c r="E43" s="3">
+        <v>10.012574031255999</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D44" s="1"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E46" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="J21:J32">
-    <sortCondition ref="J19"/>
+  <sortState ref="M8:M12">
+    <sortCondition ref="M9"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
